--- a/academycity/data/ch/datasets/excel/data/cells.xlsx
+++ b/academycity/data/ch/datasets/excel/data/cells.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="411">
   <si>
     <t xml:space="preserve">cell_code</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">MONDAY 7PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI ENTEBBE</t>
+    <t xml:space="preserve">entebbe</t>
   </si>
   <si>
     <t xml:space="preserve">UG002</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">MONDAY 5PM-7PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI MUKONO</t>
+    <t xml:space="preserve">mukono</t>
   </si>
   <si>
     <t xml:space="preserve">UG003</t>
@@ -121,9 +121,6 @@
     <t xml:space="preserve">MONDAY 4PM-5:30PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI KAMPALA</t>
-  </si>
-  <si>
     <t xml:space="preserve">UG005</t>
   </si>
   <si>
@@ -217,7 +214,7 @@
     <t xml:space="preserve">SATURDAY 4-6PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI BUSIA</t>
+    <t xml:space="preserve">busia</t>
   </si>
   <si>
     <t xml:space="preserve">UG010</t>
@@ -235,7 +232,7 @@
     <t xml:space="preserve">MONDAY, 5PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI MITYANA</t>
+    <t xml:space="preserve">mityana</t>
   </si>
   <si>
     <t xml:space="preserve">UG011</t>
@@ -328,7 +325,7 @@
     <t xml:space="preserve">MAGEZI VICTOR</t>
   </si>
   <si>
-    <t xml:space="preserve">JOVAN &amp; VANESSA</t>
+    <t xml:space="preserve">JOVAN  VANESSA</t>
   </si>
   <si>
     <t xml:space="preserve">UG017</t>
@@ -364,7 +361,7 @@
     <t xml:space="preserve">MONDAY 6:30-8PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI KAMAPLA</t>
+    <t xml:space="preserve">kampala</t>
   </si>
   <si>
     <t xml:space="preserve">UG019</t>
@@ -382,7 +379,7 @@
     <t xml:space="preserve">MONDAY 5:30PM-7PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI NANASANA</t>
+    <t xml:space="preserve">nansana</t>
   </si>
   <si>
     <t xml:space="preserve">UG020</t>
@@ -397,9 +394,6 @@
     <t xml:space="preserve">ABDUL KIMULI</t>
   </si>
   <si>
-    <t xml:space="preserve">MR/S ABDUL KIMULI</t>
-  </si>
-  <si>
     <t xml:space="preserve">MONDAY 6 PM</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t xml:space="preserve"> JEANNE ATUHAIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI NANSANA</t>
-  </si>
-  <si>
     <t xml:space="preserve">UG022</t>
   </si>
   <si>
@@ -499,7 +490,7 @@
     <t xml:space="preserve">MONDAY 5:30PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI KISASI</t>
+    <t xml:space="preserve">kisasi</t>
   </si>
   <si>
     <t xml:space="preserve">UG027</t>
@@ -526,7 +517,7 @@
     <t xml:space="preserve">ANN JACKSON LULE</t>
   </si>
   <si>
-    <t xml:space="preserve">PRS ANN &amp; JACKSON LULE</t>
+    <t xml:space="preserve">ANN  JACKSON LULE</t>
   </si>
   <si>
     <t xml:space="preserve">UG029</t>
@@ -541,9 +532,6 @@
     <t xml:space="preserve">ANITA MUNANDA</t>
   </si>
   <si>
-    <t xml:space="preserve">MS ANITA MUNANDA</t>
-  </si>
-  <si>
     <t xml:space="preserve">UG030</t>
   </si>
   <si>
@@ -571,7 +559,7 @@
     <t xml:space="preserve"> DERICK NYONGERA</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI KYEBANDO</t>
+    <t xml:space="preserve">kyebando</t>
   </si>
   <si>
     <t xml:space="preserve">UG032</t>
@@ -625,7 +613,7 @@
     <t xml:space="preserve">CHC-LUGAZI</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI LUGAZI</t>
+    <t xml:space="preserve">lugazi</t>
   </si>
   <si>
     <t xml:space="preserve">UG036</t>
@@ -643,9 +631,6 @@
     <t xml:space="preserve">KAWOOYA</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI-KAMPALA</t>
-  </si>
-  <si>
     <t xml:space="preserve">UG037</t>
   </si>
   <si>
@@ -760,7 +745,7 @@
     <t xml:space="preserve">JOYO</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI BUGOLOBI</t>
+    <t xml:space="preserve">bugolobi</t>
   </si>
   <si>
     <t xml:space="preserve">UG045</t>
@@ -1024,7 +1009,7 @@
     <t xml:space="preserve">NANTABULIRWA</t>
   </si>
   <si>
-    <t xml:space="preserve">MR.MATOVU SAMUEL</t>
+    <t xml:space="preserve">MATOVU SAMUEL</t>
   </si>
   <si>
     <t xml:space="preserve">0785285270/07023</t>
@@ -1111,7 +1096,7 @@
     <t xml:space="preserve">VIVIAN NYABURUNGI</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI MAKERERE</t>
+    <t xml:space="preserve">makerere</t>
   </si>
   <si>
     <t xml:space="preserve">UG069</t>
@@ -1147,7 +1132,7 @@
     <t xml:space="preserve">UPPER KIGUNGA CELL</t>
   </si>
   <si>
-    <t xml:space="preserve">LULE JOSEPH &amp; KISAKYE ELAI</t>
+    <t xml:space="preserve">LULE JOSEPH</t>
   </si>
   <si>
     <t xml:space="preserve">MIREMBE SHARON</t>
@@ -1207,7 +1192,7 @@
     <t xml:space="preserve">ELDER ESTHER</t>
   </si>
   <si>
-    <t xml:space="preserve">CHMI JINJA</t>
+    <t xml:space="preserve">jinja</t>
   </si>
   <si>
     <t xml:space="preserve">UG077</t>
@@ -1319,12 +1304,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1368,7 +1365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1389,6 +1386,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1402,6 +1407,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1412,19 +1477,21 @@
   </sheetPr>
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B42" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,30 +1621,30 @@
         <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>777632433</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>19</v>
@@ -1586,175 +1653,175 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>703611006</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>773127262</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>75555581</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>704771217</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>706694976</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>785976198</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>782685693</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>18</v>
@@ -1765,337 +1832,337 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>781541491</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>782657358</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>783306058</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>755635692</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>772496658</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>704285506</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>102</v>
+      <c r="F19" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>775637367</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>107</v>
+      <c r="F20" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>777231130</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>774802292</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>779836802</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>702377638</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>704168255</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>773511615</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>19</v>
@@ -2103,25 +2170,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>701470254</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>19</v>
@@ -2129,129 +2196,129 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>702808086</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>779792216</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>789506965</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>752204407</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>168</v>
+      <c r="F31" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>778946403</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>19</v>
@@ -2259,71 +2326,71 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>702724311</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>756547842</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>181</v>
+      <c r="F34" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>19</v>
@@ -2331,25 +2398,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>775690850</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>19</v>
@@ -2357,23 +2424,23 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>191</v>
+      </c>
+      <c r="E37" s="7"/>
       <c r="F37" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>19</v>
@@ -2381,75 +2448,75 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="G38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>789538366</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>773540287</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>19</v>
@@ -2457,25 +2524,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>755898800</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>13</v>
@@ -2483,77 +2550,77 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>776339289</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>706216857</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>774505852</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>19</v>
@@ -2561,22 +2628,22 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>773913902</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>12</v>
@@ -2587,25 +2654,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>702753962</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>19</v>
@@ -2613,207 +2680,207 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>772435318</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>785045986</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>772487734</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>785136160</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>759160966</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>779134303</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>779615999</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>701759382</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>19</v>
@@ -2821,25 +2888,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>758484322</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>19</v>
@@ -2847,25 +2914,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>770748727</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>19</v>
@@ -2873,51 +2940,51 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>772664234</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>701652338</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>19</v>
@@ -2925,51 +2992,51 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>782465087</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>19</v>
@@ -2977,129 +3044,129 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>700964528</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>783266986</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>703772102</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>785243255</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>330</v>
+      <c r="F64" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>19</v>
@@ -3107,25 +3174,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>760149344</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>19</v>
@@ -3133,25 +3200,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>779141523</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>19</v>
@@ -3159,51 +3226,51 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>758602864</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>19</v>
@@ -3211,25 +3278,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>789483447</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>19</v>
@@ -3237,77 +3304,77 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>782947585</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>759361298</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>787153549</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>19</v>
@@ -3315,25 +3382,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>701147550</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>19</v>
@@ -3341,51 +3408,51 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>770372733</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>703328830</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>19</v>
@@ -3393,180 +3460,180 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>775305868</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H77" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>781947460</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>785281816</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>700314817</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>701165806</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>406</v>
+      <c r="F81" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>771594289</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C83" s="5"/>
+        <v>409</v>
+      </c>
+      <c r="C83" s="7"/>
       <c r="D83" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>701114122</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
